--- a/Documentation/Sample Data for Hospital Database.xlsx
+++ b/Documentation/Sample Data for Hospital Database.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Spencer/Documents/CMSC508/Project/vcu-cs-cmsc508-teamproject-summer2020-team-10/Documentation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4548C0C5-5082-2E41-A137-B491426140C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="15100" yWindow="0" windowWidth="13700" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Patients" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Departments" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Hospitals" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Doctors" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Hospital Personnel" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Emergency Contacts" sheetId="6" r:id="rId9"/>
+    <sheet name="Patients" sheetId="1" r:id="rId1"/>
+    <sheet name="Departments" sheetId="2" r:id="rId2"/>
+    <sheet name="Hospitals" sheetId="3" r:id="rId3"/>
+    <sheet name="Doctors" sheetId="4" r:id="rId4"/>
+    <sheet name="Hospital Personnel" sheetId="5" r:id="rId5"/>
+    <sheet name="Emergency Contacts" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="354">
   <si>
     <t>hospital name</t>
   </si>
@@ -1075,33 +1084,37 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>doctor_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mmm d, yyyy"/>
-    <numFmt numFmtId="165" formatCode="mmmm d, yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -1111,77 +1124,56 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1371,23 +1363,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="30.86"/>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1427,8 +1424,11 @@
       <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="N1" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1445,10 +1445,10 @@
         <v>19</v>
       </c>
       <c r="F2" s="3">
-        <v>43703.0</v>
+        <v>43703</v>
       </c>
       <c r="G2" s="3">
-        <v>44161.0</v>
+        <v>44161</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>21</v>
@@ -1457,7 +1457,7 @@
         <v>22</v>
       </c>
       <c r="J2" s="4">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>23</v>
@@ -1466,10 +1466,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="4">
-        <v>303.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>303</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1486,10 +1489,10 @@
         <v>19</v>
       </c>
       <c r="F3" s="3">
-        <v>44119.0</v>
+        <v>44119</v>
       </c>
       <c r="G3" s="3">
-        <v>43911.0</v>
+        <v>43911</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>31</v>
@@ -1498,7 +1501,7 @@
         <v>32</v>
       </c>
       <c r="J3" s="4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>23</v>
@@ -1507,10 +1510,13 @@
         <v>34</v>
       </c>
       <c r="M3" s="4">
-        <v>241.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>241</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1527,10 +1533,10 @@
         <v>19</v>
       </c>
       <c r="F4" s="3">
-        <v>44286.0</v>
+        <v>44286</v>
       </c>
       <c r="G4" s="3">
-        <v>44121.0</v>
+        <v>44121</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>21</v>
@@ -1539,7 +1545,7 @@
         <v>41</v>
       </c>
       <c r="J4" s="4">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>42</v>
@@ -1548,10 +1554,13 @@
         <v>43</v>
       </c>
       <c r="M4" s="4">
-        <v>128.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>128</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -1568,10 +1577,10 @@
         <v>49</v>
       </c>
       <c r="F5" s="3">
-        <v>43628.0</v>
+        <v>43628</v>
       </c>
       <c r="G5" s="3">
-        <v>44198.0</v>
+        <v>44198</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>50</v>
@@ -1580,7 +1589,7 @@
         <v>51</v>
       </c>
       <c r="J5" s="4">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>42</v>
@@ -1589,10 +1598,13 @@
         <v>52</v>
       </c>
       <c r="M5" s="4">
-        <v>368.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>368</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
@@ -1609,10 +1621,10 @@
         <v>58</v>
       </c>
       <c r="F6" s="3">
-        <v>44266.0</v>
+        <v>44266</v>
       </c>
       <c r="G6" s="3">
-        <v>44279.0</v>
+        <v>44279</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>50</v>
@@ -1621,7 +1633,7 @@
         <v>61</v>
       </c>
       <c r="J6" s="4">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>23</v>
@@ -1630,27 +1642,31 @@
         <v>62</v>
       </c>
       <c r="M6" s="4">
-        <v>291.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>291</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>67</v>
       </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="3">
-        <v>43826.0</v>
+        <v>43826</v>
       </c>
       <c r="G7" s="3">
-        <v>44138.0</v>
+        <v>44138</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>70</v>
@@ -1659,7 +1675,7 @@
         <v>61</v>
       </c>
       <c r="J7" s="4">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>42</v>
@@ -1668,10 +1684,13 @@
         <v>62</v>
       </c>
       <c r="M7" s="4">
-        <v>270.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>270</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -1688,10 +1707,10 @@
         <v>24</v>
       </c>
       <c r="F8" s="3">
-        <v>44166.0</v>
+        <v>44166</v>
       </c>
       <c r="G8" s="3">
-        <v>43923.0</v>
+        <v>43923</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>80</v>
@@ -1700,7 +1719,7 @@
         <v>32</v>
       </c>
       <c r="J8" s="4">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>42</v>
@@ -1709,10 +1728,13 @@
         <v>43</v>
       </c>
       <c r="M8" s="4">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>360</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -1729,10 +1751,10 @@
         <v>84</v>
       </c>
       <c r="F9" s="3">
-        <v>43996.0</v>
+        <v>43996</v>
       </c>
       <c r="G9" s="3">
-        <v>43914.0</v>
+        <v>43914</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>50</v>
@@ -1741,7 +1763,7 @@
         <v>85</v>
       </c>
       <c r="J9" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>23</v>
@@ -1750,10 +1772,13 @@
         <v>74</v>
       </c>
       <c r="M9" s="4">
-        <v>162.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>162</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -1770,10 +1795,10 @@
         <v>49</v>
       </c>
       <c r="F10" s="3">
-        <v>43996.0</v>
+        <v>43996</v>
       </c>
       <c r="G10" s="3">
-        <v>44284.0</v>
+        <v>44284</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>70</v>
@@ -1782,7 +1807,7 @@
         <v>92</v>
       </c>
       <c r="J10" s="4">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>42</v>
@@ -1791,27 +1816,31 @@
         <v>93</v>
       </c>
       <c r="M10" s="4">
-        <v>181.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>181</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>98</v>
       </c>
+      <c r="D11" s="10"/>
       <c r="E11" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="3">
-        <v>43704.0</v>
+        <v>43704</v>
       </c>
       <c r="G11" s="3">
-        <v>44015.0</v>
+        <v>44015</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>101</v>
@@ -1820,7 +1849,7 @@
         <v>85</v>
       </c>
       <c r="J11" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>42</v>
@@ -1829,10 +1858,13 @@
         <v>74</v>
       </c>
       <c r="M11" s="4">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>200</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>104</v>
       </c>
@@ -1849,10 +1881,10 @@
         <v>84</v>
       </c>
       <c r="F12" s="3">
-        <v>43703.0</v>
+        <v>43703</v>
       </c>
       <c r="G12" s="3">
-        <v>44117.0</v>
+        <v>44117</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>109</v>
@@ -1861,7 +1893,7 @@
         <v>110</v>
       </c>
       <c r="J12" s="4">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>42</v>
@@ -1870,10 +1902,13 @@
         <v>52</v>
       </c>
       <c r="M12" s="4">
-        <v>339.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>339</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>113</v>
       </c>
@@ -1890,10 +1925,10 @@
         <v>74</v>
       </c>
       <c r="F13" s="3">
-        <v>43947.0</v>
+        <v>43947</v>
       </c>
       <c r="G13" s="3">
-        <v>43749.0</v>
+        <v>43749</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>80</v>
@@ -1902,7 +1937,7 @@
         <v>92</v>
       </c>
       <c r="J13" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>23</v>
@@ -1911,10 +1946,13 @@
         <v>93</v>
       </c>
       <c r="M13" s="4">
-        <v>301.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>301</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>120</v>
       </c>
@@ -1931,10 +1969,10 @@
         <v>24</v>
       </c>
       <c r="F14" s="3">
-        <v>43753.0</v>
+        <v>43753</v>
       </c>
       <c r="G14" s="3">
-        <v>44042.0</v>
+        <v>44042</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>31</v>
@@ -1943,7 +1981,7 @@
         <v>51</v>
       </c>
       <c r="J14" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>42</v>
@@ -1952,10 +1990,13 @@
         <v>62</v>
       </c>
       <c r="M14" s="4">
-        <v>295.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>295</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>125</v>
       </c>
@@ -1972,10 +2013,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="3">
-        <v>44002.0</v>
+        <v>44002</v>
       </c>
       <c r="G15" s="3">
-        <v>43741.0</v>
+        <v>43741</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>70</v>
@@ -1984,7 +2025,7 @@
         <v>22</v>
       </c>
       <c r="J15" s="4">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>23</v>
@@ -1993,10 +2034,13 @@
         <v>84</v>
       </c>
       <c r="M15" s="4">
-        <v>155.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>155</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>132</v>
       </c>
@@ -2013,10 +2057,10 @@
         <v>62</v>
       </c>
       <c r="F16" s="3">
-        <v>44266.0</v>
+        <v>44266</v>
       </c>
       <c r="G16" s="3">
-        <v>44065.0</v>
+        <v>44065</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>135</v>
@@ -2025,7 +2069,7 @@
         <v>41</v>
       </c>
       <c r="J16" s="4">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>42</v>
@@ -2034,10 +2078,13 @@
         <v>62</v>
       </c>
       <c r="M16" s="4">
-        <v>288.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>288</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>136</v>
       </c>
@@ -2054,10 +2101,10 @@
         <v>58</v>
       </c>
       <c r="F17" s="3">
-        <v>44313.0</v>
+        <v>44313</v>
       </c>
       <c r="G17" s="3">
-        <v>44115.0</v>
+        <v>44115</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>101</v>
@@ -2066,7 +2113,7 @@
         <v>22</v>
       </c>
       <c r="J17" s="4">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>42</v>
@@ -2075,10 +2122,13 @@
         <v>49</v>
       </c>
       <c r="M17" s="4">
-        <v>339.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>339</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>139</v>
       </c>
@@ -2095,10 +2145,10 @@
         <v>62</v>
       </c>
       <c r="F18" s="3">
-        <v>43863.0</v>
+        <v>43863</v>
       </c>
       <c r="G18" s="3">
-        <v>43921.0</v>
+        <v>43921</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>80</v>
@@ -2107,7 +2157,7 @@
         <v>110</v>
       </c>
       <c r="J18" s="4">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>23</v>
@@ -2116,10 +2166,13 @@
         <v>62</v>
       </c>
       <c r="M18" s="4">
-        <v>157.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>157</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>142</v>
       </c>
@@ -2136,10 +2189,10 @@
         <v>84</v>
       </c>
       <c r="F19" s="3">
-        <v>44287.0</v>
+        <v>44287</v>
       </c>
       <c r="G19" s="3">
-        <v>44135.0</v>
+        <v>44135</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>135</v>
@@ -2148,7 +2201,7 @@
         <v>22</v>
       </c>
       <c r="J19" s="4">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>23</v>
@@ -2157,27 +2210,31 @@
         <v>19</v>
       </c>
       <c r="M19" s="4">
-        <v>371.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>371</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="9" t="s">
         <v>148</v>
       </c>
+      <c r="D20" s="10"/>
       <c r="E20" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F20" s="3">
-        <v>43904.0</v>
+        <v>43904</v>
       </c>
       <c r="G20" s="3">
-        <v>44220.0</v>
+        <v>44220</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>70</v>
@@ -2186,7 +2243,7 @@
         <v>92</v>
       </c>
       <c r="J20" s="4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>23</v>
@@ -2195,7 +2252,10 @@
         <v>49</v>
       </c>
       <c r="M20" s="4">
-        <v>177.0</v>
+        <v>177</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2204,73 +2264,80 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C20:D20"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.86"/>
-    <col customWidth="1" min="2" max="2" width="25.86"/>
-    <col customWidth="1" min="3" max="3" width="34.14"/>
-    <col customWidth="1" min="5" max="5" width="22.29"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2287,7 +2354,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2298,13 +2365,13 @@
         <v>48</v>
       </c>
       <c r="D2" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -2315,13 +2382,13 @@
         <v>54</v>
       </c>
       <c r="D3" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -2332,13 +2399,13 @@
         <v>60</v>
       </c>
       <c r="D4" s="4">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="E4" s="4">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -2349,13 +2416,13 @@
         <v>65</v>
       </c>
       <c r="D5" s="4">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="E5" s="4">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2366,13 +2433,13 @@
         <v>69</v>
       </c>
       <c r="D6" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -2383,13 +2450,13 @@
         <v>72</v>
       </c>
       <c r="D7" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="E7" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
@@ -2400,13 +2467,13 @@
         <v>76</v>
       </c>
       <c r="D8" s="4">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="E8" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -2417,13 +2484,13 @@
         <v>86</v>
       </c>
       <c r="D9" s="4">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2434,13 +2501,13 @@
         <v>91</v>
       </c>
       <c r="D10" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>93</v>
       </c>
@@ -2451,13 +2518,13 @@
         <v>95</v>
       </c>
       <c r="D11" s="4">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E11" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -2468,13 +2535,13 @@
         <v>100</v>
       </c>
       <c r="D12" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E12" s="4">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2485,13 +2552,13 @@
         <v>103</v>
       </c>
       <c r="D13" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -2502,13 +2569,13 @@
         <v>108</v>
       </c>
       <c r="D14" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E14" s="4">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>93</v>
       </c>
@@ -2519,13 +2586,13 @@
         <v>112</v>
       </c>
       <c r="D15" s="4">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E15" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
@@ -2536,13 +2603,13 @@
         <v>117</v>
       </c>
       <c r="D16" s="4">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="E16" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -2553,13 +2620,13 @@
         <v>119</v>
       </c>
       <c r="D17" s="4">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="E17" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2570,13 +2637,13 @@
         <v>124</v>
       </c>
       <c r="D18" s="4">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -2587,13 +2654,13 @@
         <v>129</v>
       </c>
       <c r="D19" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E19" s="4">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -2604,32 +2671,35 @@
         <v>131</v>
       </c>
       <c r="D20" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="E20" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="15.86"/>
-    <col customWidth="1" min="6" max="6" width="30.86"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -2656,7 +2726,7 @@
       </c>
       <c r="I1" s="6"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>153</v>
       </c>
@@ -2676,13 +2746,14 @@
         <v>19</v>
       </c>
       <c r="G2" s="3">
-        <v>38261.0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>43572.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>38261</v>
+      </c>
+      <c r="H2" s="11">
+        <v>43572</v>
+      </c>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>156</v>
       </c>
@@ -2702,13 +2773,14 @@
         <v>84</v>
       </c>
       <c r="G3" s="7">
-        <v>44334.0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>39039.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>44334</v>
+      </c>
+      <c r="H3" s="11">
+        <v>39039</v>
+      </c>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>160</v>
       </c>
@@ -2728,13 +2800,14 @@
         <v>49</v>
       </c>
       <c r="G4" s="3">
-        <v>39685.0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>39760.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>39685</v>
+      </c>
+      <c r="H4" s="11">
+        <v>39760</v>
+      </c>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>164</v>
       </c>
@@ -2754,14 +2827,14 @@
         <v>49</v>
       </c>
       <c r="G5" s="3">
-        <v>40180.0</v>
+        <v>40180</v>
       </c>
       <c r="H5" s="3">
-        <v>40003.0</v>
+        <v>40003</v>
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>167</v>
       </c>
@@ -2781,13 +2854,14 @@
         <v>84</v>
       </c>
       <c r="G6" s="3">
-        <v>39280.0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>36827.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>39280</v>
+      </c>
+      <c r="H6" s="11">
+        <v>36827</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>170</v>
       </c>
@@ -2807,13 +2881,14 @@
         <v>84</v>
       </c>
       <c r="G7" s="3">
-        <v>41429.0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>37144.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>41429</v>
+      </c>
+      <c r="H7" s="11">
+        <v>37144</v>
+      </c>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>173</v>
       </c>
@@ -2833,13 +2908,14 @@
         <v>34</v>
       </c>
       <c r="G8" s="3">
-        <v>37126.0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>40588.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>37126</v>
+      </c>
+      <c r="H8" s="11">
+        <v>40588</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>176</v>
       </c>
@@ -2859,13 +2935,14 @@
         <v>34</v>
       </c>
       <c r="G9" s="3">
-        <v>42218.0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>39793.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>42218</v>
+      </c>
+      <c r="H9" s="11">
+        <v>39793</v>
+      </c>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>179</v>
       </c>
@@ -2885,13 +2962,14 @@
         <v>74</v>
       </c>
       <c r="G10" s="3">
-        <v>40435.0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>42487.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>40435</v>
+      </c>
+      <c r="H10" s="11">
+        <v>42487</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>182</v>
       </c>
@@ -2911,13 +2989,14 @@
         <v>34</v>
       </c>
       <c r="G11" s="3">
-        <v>38949.0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>42612.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>38949</v>
+      </c>
+      <c r="H11" s="11">
+        <v>42612</v>
+      </c>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>185</v>
       </c>
@@ -2937,13 +3016,14 @@
         <v>58</v>
       </c>
       <c r="G12" s="7">
-        <v>37027.0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>40903.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>37027</v>
+      </c>
+      <c r="H12" s="11">
+        <v>40903</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>189</v>
       </c>
@@ -2963,13 +3043,14 @@
         <v>62</v>
       </c>
       <c r="G13" s="3">
-        <v>43762.0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>43247.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>43762</v>
+      </c>
+      <c r="H13" s="12">
+        <v>43247</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>192</v>
       </c>
@@ -2989,13 +3070,14 @@
         <v>62</v>
       </c>
       <c r="G14" s="7">
-        <v>38838.0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>41465.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>38838</v>
+      </c>
+      <c r="H14" s="11">
+        <v>41465</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>195</v>
       </c>
@@ -3015,13 +3097,14 @@
         <v>49</v>
       </c>
       <c r="G15" s="7">
-        <v>37029.0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>39318.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>37029</v>
+      </c>
+      <c r="H15" s="11">
+        <v>39318</v>
+      </c>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>197</v>
       </c>
@@ -3041,13 +3124,14 @@
         <v>43</v>
       </c>
       <c r="G16" s="3">
-        <v>38808.0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>41430.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>38808</v>
+      </c>
+      <c r="H16" s="11">
+        <v>41430</v>
+      </c>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>200</v>
       </c>
@@ -3067,13 +3151,14 @@
         <v>93</v>
       </c>
       <c r="G17" s="3">
-        <v>38414.0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>42968.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>38414</v>
+      </c>
+      <c r="H17" s="11">
+        <v>42968</v>
+      </c>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>203</v>
       </c>
@@ -3093,13 +3178,14 @@
         <v>49</v>
       </c>
       <c r="G18" s="3">
-        <v>38300.0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>44257.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>38300</v>
+      </c>
+      <c r="H18" s="11">
+        <v>44257</v>
+      </c>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>206</v>
       </c>
@@ -3119,13 +3205,14 @@
         <v>58</v>
       </c>
       <c r="G19" s="3">
-        <v>42443.0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>39497.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>42443</v>
+      </c>
+      <c r="H19" s="11">
+        <v>39497</v>
+      </c>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>209</v>
       </c>
@@ -3145,24 +3232,15 @@
         <v>52</v>
       </c>
       <c r="G20" s="3">
-        <v>37420.0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>36838.0</v>
-      </c>
+        <v>37420</v>
+      </c>
+      <c r="H20" s="11">
+        <v>36838</v>
+      </c>
+      <c r="I20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
@@ -3171,27 +3249,38 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.71"/>
-    <col customWidth="1" min="2" max="2" width="8.14"/>
-    <col customWidth="1" min="6" max="6" width="30.86"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>214</v>
       </c>
@@ -3218,7 +3307,7 @@
       </c>
       <c r="I1" s="6"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>219</v>
       </c>
@@ -3238,13 +3327,14 @@
         <v>84</v>
       </c>
       <c r="G2" s="3">
-        <v>43626.0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>42962.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>43626</v>
+      </c>
+      <c r="H2" s="11">
+        <v>42962</v>
+      </c>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>223</v>
       </c>
@@ -3264,13 +3354,14 @@
         <v>24</v>
       </c>
       <c r="G3" s="3">
-        <v>40725.0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>40348.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>40725</v>
+      </c>
+      <c r="H3" s="11">
+        <v>40348</v>
+      </c>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>262</v>
       </c>
@@ -3290,13 +3381,14 @@
         <v>24</v>
       </c>
       <c r="G4" s="3">
-        <v>43585.0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>42014.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>43585</v>
+      </c>
+      <c r="H4" s="11">
+        <v>42014</v>
+      </c>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>285</v>
       </c>
@@ -3316,13 +3408,14 @@
         <v>24</v>
       </c>
       <c r="G5" s="3">
-        <v>38775.0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>44130.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>38775</v>
+      </c>
+      <c r="H5" s="11">
+        <v>44130</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>295</v>
       </c>
@@ -3342,13 +3435,14 @@
         <v>58</v>
       </c>
       <c r="G6" s="3">
-        <v>37410.0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>40076.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>37410</v>
+      </c>
+      <c r="H6" s="11">
+        <v>40076</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>312</v>
       </c>
@@ -3368,13 +3462,14 @@
         <v>74</v>
       </c>
       <c r="G7" s="3">
-        <v>36705.0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>38784.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>36705</v>
+      </c>
+      <c r="H7" s="11">
+        <v>38784</v>
+      </c>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>315</v>
       </c>
@@ -3394,13 +3489,14 @@
         <v>49</v>
       </c>
       <c r="G8" s="3">
-        <v>37775.0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>40568.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>37775</v>
+      </c>
+      <c r="H8" s="11">
+        <v>40568</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>318</v>
       </c>
@@ -3420,13 +3516,14 @@
         <v>84</v>
       </c>
       <c r="G9" s="7">
-        <v>44338.0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>38142.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>44338</v>
+      </c>
+      <c r="H9" s="11">
+        <v>38142</v>
+      </c>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>321</v>
       </c>
@@ -3446,13 +3543,14 @@
         <v>58</v>
       </c>
       <c r="G10" s="3">
-        <v>43638.0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>43530.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>43638</v>
+      </c>
+      <c r="H10" s="11">
+        <v>43530</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>323</v>
       </c>
@@ -3472,13 +3570,14 @@
         <v>62</v>
       </c>
       <c r="G11" s="3">
-        <v>41435.0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>37572.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>41435</v>
+      </c>
+      <c r="H11" s="11">
+        <v>37572</v>
+      </c>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>326</v>
       </c>
@@ -3498,13 +3597,14 @@
         <v>93</v>
       </c>
       <c r="G12" s="3">
-        <v>41092.0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>37353.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>41092</v>
+      </c>
+      <c r="H12" s="11">
+        <v>37353</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>329</v>
       </c>
@@ -3524,13 +3624,14 @@
         <v>84</v>
       </c>
       <c r="G13" s="7">
-        <v>42858.0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>43120.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>42858</v>
+      </c>
+      <c r="H13" s="11">
+        <v>43120</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>332</v>
       </c>
@@ -3550,13 +3651,14 @@
         <v>74</v>
       </c>
       <c r="G14" s="3">
-        <v>40493.0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>38804.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>40493</v>
+      </c>
+      <c r="H14" s="11">
+        <v>38804</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>335</v>
       </c>
@@ -3576,13 +3678,14 @@
         <v>58</v>
       </c>
       <c r="G15" s="3">
-        <v>43007.0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>42464.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>43007</v>
+      </c>
+      <c r="H15" s="11">
+        <v>42464</v>
+      </c>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>338</v>
       </c>
@@ -3602,13 +3705,14 @@
         <v>93</v>
       </c>
       <c r="G16" s="3">
-        <v>38021.0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>41112.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>38021</v>
+      </c>
+      <c r="H16" s="11">
+        <v>41112</v>
+      </c>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>341</v>
       </c>
@@ -3628,13 +3732,14 @@
         <v>43</v>
       </c>
       <c r="G17" s="3">
-        <v>40427.0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>43949.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>40427</v>
+      </c>
+      <c r="H17" s="11">
+        <v>43949</v>
+      </c>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>344</v>
       </c>
@@ -3654,13 +3759,14 @@
         <v>74</v>
       </c>
       <c r="G18" s="3">
-        <v>41944.0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>41818.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>41944</v>
+      </c>
+      <c r="H18" s="11">
+        <v>41818</v>
+      </c>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>347</v>
       </c>
@@ -3680,13 +3786,14 @@
         <v>58</v>
       </c>
       <c r="G19" s="3">
-        <v>41935.0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>38409.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>41935</v>
+      </c>
+      <c r="H19" s="11">
+        <v>38409</v>
+      </c>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>350</v>
       </c>
@@ -3706,24 +3813,15 @@
         <v>34</v>
       </c>
       <c r="G20" s="3">
-        <v>43298.0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>39466.0</v>
-      </c>
+        <v>43298</v>
+      </c>
+      <c r="H20" s="11">
+        <v>39466</v>
+      </c>
+      <c r="I20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
@@ -3733,25 +3831,36 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.71"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>212</v>
       </c>
@@ -3768,7 +3877,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>216</v>
       </c>
@@ -3785,7 +3894,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>230</v>
       </c>
@@ -3802,7 +3911,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>234</v>
       </c>
@@ -3819,7 +3928,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>237</v>
       </c>
@@ -3836,7 +3945,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>242</v>
       </c>
@@ -3853,7 +3962,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>246</v>
       </c>
@@ -3870,7 +3979,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>250</v>
       </c>
@@ -3887,7 +3996,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>254</v>
       </c>
@@ -3904,7 +4013,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>258</v>
       </c>
@@ -3921,7 +4030,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>263</v>
       </c>
@@ -3938,7 +4047,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>268</v>
       </c>
@@ -3955,7 +4064,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>273</v>
       </c>
@@ -3972,7 +4081,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>277</v>
       </c>
@@ -3989,7 +4098,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>281</v>
       </c>
@@ -4006,7 +4115,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>288</v>
       </c>
@@ -4023,7 +4132,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>292</v>
       </c>
@@ -4040,7 +4149,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>298</v>
       </c>
@@ -4057,7 +4166,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>303</v>
       </c>
@@ -4074,7 +4183,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>308</v>
       </c>
@@ -4092,6 +4201,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/Sample Data for Hospital Database.xlsx
+++ b/Documentation/Sample Data for Hospital Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Spencer/Documents/CMSC508/Project/vcu-cs-cmsc508-teamproject-summer2020-team-10/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4548C0C5-5082-2E41-A137-B491426140C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713F7D02-7B24-0B41-A9A4-9002F3D970BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15100" yWindow="0" windowWidth="13700" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="319">
   <si>
     <t>hospital name</t>
   </si>
@@ -42,9 +42,6 @@
     <t>last name</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>department</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>Virginia Hospital Center</t>
   </si>
   <si>
-    <t>5126 Eu, Road</t>
-  </si>
-  <si>
     <t>Cathleen</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>16850326 6812</t>
   </si>
   <si>
-    <t>Hinckley</t>
-  </si>
-  <si>
     <t>University of Virginia Medical Center</t>
   </si>
   <si>
@@ -186,12 +177,6 @@
     <t>Sentara Norfolk General Hospital</t>
   </si>
   <si>
-    <t>9592 Senectus Av.</t>
-  </si>
-  <si>
-    <t>Le Grand-Quevilly</t>
-  </si>
-  <si>
     <t>Dylan</t>
   </si>
   <si>
@@ -204,69 +189,36 @@
     <t>Chippenham Hospital</t>
   </si>
   <si>
-    <t>7447 Malesuada St.</t>
-  </si>
-  <si>
-    <t>Township of Minden Hills</t>
-  </si>
-  <si>
     <t>B-</t>
   </si>
   <si>
     <t>Mary Washington Hospital</t>
   </si>
   <si>
-    <t>P.O. Box 282, 4101 Pede. Rd.</t>
-  </si>
-  <si>
     <t>Penelope</t>
   </si>
   <si>
-    <t>Pomarolo</t>
-  </si>
-  <si>
     <t>Johns</t>
   </si>
   <si>
     <t>16120325 8650</t>
   </si>
   <si>
-    <t>Ap #612-7584 Hendrerit. Road</t>
-  </si>
-  <si>
-    <t>Saint-Urbain</t>
-  </si>
-  <si>
     <t>Hypertension</t>
   </si>
   <si>
-    <t>Ap #166-4126 In Av.</t>
-  </si>
-  <si>
-    <t>Haldia</t>
-  </si>
-  <si>
     <t>Wyoming</t>
   </si>
   <si>
     <t>Inova Alexandria Hospital</t>
   </si>
   <si>
-    <t>P.O. Box 831, 8171 Nec Av.</t>
-  </si>
-  <si>
-    <t>Oakham</t>
-  </si>
-  <si>
     <t>Craft</t>
   </si>
   <si>
     <t>16320519 7712</t>
   </si>
   <si>
-    <t>Ap #241-4476 Non, Rd.</t>
-  </si>
-  <si>
     <t>Cancer</t>
   </si>
   <si>
@@ -285,9 +237,6 @@
     <t>AB-</t>
   </si>
   <si>
-    <t>Güssing</t>
-  </si>
-  <si>
     <t>Prescott</t>
   </si>
   <si>
@@ -297,24 +246,12 @@
     <t>16191205 7914</t>
   </si>
   <si>
-    <t>P.O. Box 865, 2628 Vel Avenue</t>
-  </si>
-  <si>
-    <t>San Martino in Badia/St. Martin in Thurn</t>
-  </si>
-  <si>
     <t>A+</t>
   </si>
   <si>
     <t>VCU Medical Center</t>
   </si>
   <si>
-    <t>5727 Ultrices Road</t>
-  </si>
-  <si>
-    <t>Guntakal</t>
-  </si>
-  <si>
     <t>Aiko</t>
   </si>
   <si>
@@ -324,21 +261,9 @@
     <t>16121227 1124</t>
   </si>
   <si>
-    <t>P.O. Box 346, 6099 Eu Rd.</t>
-  </si>
-  <si>
-    <t>Svitino</t>
-  </si>
-  <si>
     <t>Chronic Bronchitis</t>
   </si>
   <si>
-    <t>398-2850 Tristique Rd.</t>
-  </si>
-  <si>
-    <t>Roosbeek</t>
-  </si>
-  <si>
     <t>Malik</t>
   </si>
   <si>
@@ -348,81 +273,39 @@
     <t>16750213 4518</t>
   </si>
   <si>
-    <t>492-2853 Lectus, Rd.</t>
-  </si>
-  <si>
-    <t>Fort Good Hope</t>
-  </si>
-  <si>
     <t>Biabetes</t>
   </si>
   <si>
     <t>O-</t>
   </si>
   <si>
-    <t>576-6926 Nisi Street</t>
-  </si>
-  <si>
-    <t>Sheikhupura</t>
-  </si>
-  <si>
     <t>Allen</t>
   </si>
   <si>
     <t>Pope</t>
   </si>
   <si>
-    <t>P.O. Box 610, 2308 Lectus Rd.</t>
-  </si>
-  <si>
     <t>16210106 1618</t>
   </si>
   <si>
-    <t>Santa Marina</t>
-  </si>
-  <si>
-    <t>109-9563 Eu St.</t>
-  </si>
-  <si>
-    <t>Châteauroux</t>
-  </si>
-  <si>
     <t>Randall</t>
   </si>
   <si>
     <t>Wall</t>
   </si>
   <si>
-    <t>P.O. Box 395, 4077 Ipsum. Rd.</t>
-  </si>
-  <si>
     <t>16340307 5173</t>
   </si>
   <si>
-    <t>Gloucester</t>
-  </si>
-  <si>
     <t>Brenden</t>
   </si>
   <si>
     <t>Hernandez</t>
   </si>
   <si>
-    <t>7406 Quisque Ave</t>
-  </si>
-  <si>
     <t>16130823 7187</t>
   </si>
   <si>
-    <t>Treppo Carnico</t>
-  </si>
-  <si>
-    <t>829-6409 Vel, Street</t>
-  </si>
-  <si>
-    <t>Sandy</t>
-  </si>
-  <si>
     <t>Keaton</t>
   </si>
   <si>
@@ -474,30 +357,15 @@
     <t>16441008 8514</t>
   </si>
   <si>
-    <t>department name</t>
-  </si>
-  <si>
-    <t>specialty</t>
-  </si>
-  <si>
     <t>start date</t>
   </si>
   <si>
-    <t>end date</t>
-  </si>
-  <si>
-    <t>16010309 9495</t>
-  </si>
-  <si>
     <t>Sykes</t>
   </si>
   <si>
     <t>Oncologist</t>
   </si>
   <si>
-    <t>16730401 2821</t>
-  </si>
-  <si>
     <t>Ashton</t>
   </si>
   <si>
@@ -507,9 +375,6 @@
     <t>Cardiologist</t>
   </si>
   <si>
-    <t>16630826 9999</t>
-  </si>
-  <si>
     <t>Avye</t>
   </si>
   <si>
@@ -519,72 +384,48 @@
     <t>Surgery</t>
   </si>
   <si>
-    <t>16770925 6155</t>
-  </si>
-  <si>
     <t>Bethany</t>
   </si>
   <si>
     <t>Shaw</t>
   </si>
   <si>
-    <t>16010314 8375</t>
-  </si>
-  <si>
     <t>Ariel</t>
   </si>
   <si>
     <t>Gilliam</t>
   </si>
   <si>
-    <t>16921005 6488</t>
-  </si>
-  <si>
     <t>Macon</t>
   </si>
   <si>
     <t>Barron</t>
   </si>
   <si>
-    <t>16551213 3439</t>
-  </si>
-  <si>
     <t>Shannon</t>
   </si>
   <si>
     <t>Thornton</t>
   </si>
   <si>
-    <t>16400821 1775</t>
-  </si>
-  <si>
     <t>Lewis</t>
   </si>
   <si>
     <t>Britt</t>
   </si>
   <si>
-    <t>16840419 5169</t>
-  </si>
-  <si>
     <t>Margaret</t>
   </si>
   <si>
     <t>Bowen</t>
   </si>
   <si>
-    <t>16200114 2195</t>
-  </si>
-  <si>
     <t>Alexandra</t>
   </si>
   <si>
     <t>Gillespie</t>
   </si>
   <si>
-    <t>16290605 3109</t>
-  </si>
-  <si>
     <t>Gage</t>
   </si>
   <si>
@@ -594,69 +435,45 @@
     <t>Intensive Care</t>
   </si>
   <si>
-    <t>16410211 2499</t>
-  </si>
-  <si>
     <t>Magee</t>
   </si>
   <si>
     <t>Valentine</t>
   </si>
   <si>
-    <t>16241107 2982</t>
-  </si>
-  <si>
     <t>Simon</t>
   </si>
   <si>
     <t>Morse</t>
   </si>
   <si>
-    <t>16550124 0278</t>
-  </si>
-  <si>
     <t>Kendall</t>
   </si>
   <si>
-    <t>16241119 5676</t>
-  </si>
-  <si>
     <t>Anjolie</t>
   </si>
   <si>
     <t>Garrison</t>
   </si>
   <si>
-    <t>16370918 5908</t>
-  </si>
-  <si>
     <t>Rana</t>
   </si>
   <si>
     <t>Mcknight</t>
   </si>
   <si>
-    <t>16461125 9542</t>
-  </si>
-  <si>
     <t>Rafael</t>
   </si>
   <si>
     <t>Tate</t>
   </si>
   <si>
-    <t>16220825 6210</t>
-  </si>
-  <si>
     <t>Nina</t>
   </si>
   <si>
     <t>Lynn</t>
   </si>
   <si>
-    <t>16540607 4533</t>
-  </si>
-  <si>
     <t>Kiara</t>
   </si>
   <si>
@@ -675,15 +492,9 @@
     <t>relation</t>
   </si>
   <si>
-    <t>16350517 3819</t>
-  </si>
-  <si>
     <t>job type</t>
   </si>
   <si>
-    <t>hospital id</t>
-  </si>
-  <si>
     <t>16601210 6677</t>
   </si>
   <si>
@@ -717,9 +528,6 @@
     <t>Harding</t>
   </si>
   <si>
-    <t>16830617 8065</t>
-  </si>
-  <si>
     <t>Hashim</t>
   </si>
   <si>
@@ -729,18 +537,12 @@
     <t>790-410-2011</t>
   </si>
   <si>
-    <t>16500304 0242</t>
-  </si>
-  <si>
     <t>Maxine</t>
   </si>
   <si>
     <t>727-502-2274</t>
   </si>
   <si>
-    <t>16100901 7003</t>
-  </si>
-  <si>
     <t>Kamal</t>
   </si>
   <si>
@@ -753,9 +555,6 @@
     <t>Friend</t>
   </si>
   <si>
-    <t>16461014 3283</t>
-  </si>
-  <si>
     <t>Marny</t>
   </si>
   <si>
@@ -765,9 +564,6 @@
     <t>376-762-4466</t>
   </si>
   <si>
-    <t>16320204 4610</t>
-  </si>
-  <si>
     <t>Zoe</t>
   </si>
   <si>
@@ -777,9 +573,6 @@
     <t>660-863-5667</t>
   </si>
   <si>
-    <t>16880810 9105</t>
-  </si>
-  <si>
     <t>Skyler</t>
   </si>
   <si>
@@ -789,9 +582,6 @@
     <t>151-756-9752</t>
   </si>
   <si>
-    <t>16800201 4069</t>
-  </si>
-  <si>
     <t>Lunea</t>
   </si>
   <si>
@@ -801,9 +591,6 @@
     <t>265-716-7601</t>
   </si>
   <si>
-    <t>16220418 2204</t>
-  </si>
-  <si>
     <t>Angelica</t>
   </si>
   <si>
@@ -816,9 +603,6 @@
     <t>16350305 1272</t>
   </si>
   <si>
-    <t>16870124 3860</t>
-  </si>
-  <si>
     <t>Talon</t>
   </si>
   <si>
@@ -831,9 +615,6 @@
     <t>Dieter</t>
   </si>
   <si>
-    <t>16120403 6055</t>
-  </si>
-  <si>
     <t>Olympia</t>
   </si>
   <si>
@@ -846,9 +627,6 @@
     <t>638-739-7801</t>
   </si>
   <si>
-    <t>16891118 8814</t>
-  </si>
-  <si>
     <t>Lisandra</t>
   </si>
   <si>
@@ -858,9 +636,6 @@
     <t>788-889-3855</t>
   </si>
   <si>
-    <t>16900801 1471</t>
-  </si>
-  <si>
     <t>Winifred</t>
   </si>
   <si>
@@ -870,9 +645,6 @@
     <t>635-515-3493</t>
   </si>
   <si>
-    <t>16351208 8844</t>
-  </si>
-  <si>
     <t>Kimberley</t>
   </si>
   <si>
@@ -891,9 +663,6 @@
     <t>Sloan</t>
   </si>
   <si>
-    <t>16430219 7944</t>
-  </si>
-  <si>
     <t>Petra</t>
   </si>
   <si>
@@ -903,9 +672,6 @@
     <t>951-635-4300</t>
   </si>
   <si>
-    <t>16690404 9357</t>
-  </si>
-  <si>
     <t>Thomas</t>
   </si>
   <si>
@@ -921,9 +687,6 @@
     <t>Janitor</t>
   </si>
   <si>
-    <t>16390603 6177</t>
-  </si>
-  <si>
     <t>Adam</t>
   </si>
   <si>
@@ -936,9 +699,6 @@
     <t>Odette</t>
   </si>
   <si>
-    <t>16040224 6334</t>
-  </si>
-  <si>
     <t>Bonner</t>
   </si>
   <si>
@@ -951,9 +711,6 @@
     <t>013-643-2245</t>
   </si>
   <si>
-    <t>16890225 7693</t>
-  </si>
-  <si>
     <t>Isaac</t>
   </si>
   <si>
@@ -1087,17 +844,167 @@
   </si>
   <si>
     <t>doctor_ID</t>
+  </si>
+  <si>
+    <t>Current_Hospital</t>
+  </si>
+  <si>
+    <t>Current Hospital</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>patient ID</t>
+  </si>
+  <si>
+    <t>Contact_id</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1906 Belleview Ave SE</t>
+    </r>
+  </si>
+  <si>
+    <t>Roanoke</t>
+  </si>
+  <si>
+    <t>Falls Church</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5801 Bremo Rd</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3300 Gallows Rd</t>
+  </si>
+  <si>
+    <t>600 Gresham Dr</t>
+  </si>
+  <si>
+    <t>Norfolk</t>
+  </si>
+  <si>
+    <t>1215 Lee St</t>
+  </si>
+  <si>
+    <t>Charlottesville</t>
+  </si>
+  <si>
+    <t>4320 Seminary Rd</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>1250 E Marshall St</t>
+  </si>
+  <si>
+    <t>1701 N George Mason Dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arlington </t>
+  </si>
+  <si>
+    <t>7101 Jahnke Rd</t>
+  </si>
+  <si>
+    <t>Ryder</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Klein</t>
+  </si>
+  <si>
+    <t>Asher</t>
+  </si>
+  <si>
+    <t>Knox</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Knowles</t>
+  </si>
+  <si>
+    <t>Addison</t>
+  </si>
+  <si>
+    <t>Hammett</t>
+  </si>
+  <si>
+    <t>Lynch</t>
+  </si>
+  <si>
+    <t>Amal</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>Lester</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Frederick</t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>Macdonald</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t>Josiah</t>
+  </si>
+  <si>
+    <t>Kelley</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Bray</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="mm\-dd\-yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1117,6 +1024,31 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1139,7 +1071,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1150,11 +1082,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1376,12 +1314,15 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.83203125" customWidth="1"/>
+    <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1392,878 +1333,865 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="N1" s="6" t="s">
-        <v>353</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3">
+        <v>18</v>
+      </c>
+      <c r="F2" s="11">
         <v>43703</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="11">
         <v>44161</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="J2" s="4">
         <v>82</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="M2" s="4">
         <v>303</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>153</v>
+      <c r="N2" s="14">
+        <v>89621657699</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11">
         <v>44119</v>
       </c>
-      <c r="G3" s="3">
-        <v>43911</v>
-      </c>
+      <c r="G3" s="11"/>
       <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="J3" s="4">
         <v>70</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" s="4">
         <v>241</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>156</v>
+      <c r="N3" s="14">
+        <v>13454996899</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="11">
+        <v>44286</v>
+      </c>
+      <c r="G4" s="11">
+        <v>44121</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3">
-        <v>44286</v>
-      </c>
-      <c r="G4" s="3">
-        <v>44121</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4" s="4">
         <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M4" s="4">
         <v>128</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>160</v>
+      <c r="N4" s="14">
+        <v>77299698399</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="11">
+        <v>43628</v>
+      </c>
+      <c r="G5" s="11">
+        <v>44198</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="3">
-        <v>43628</v>
-      </c>
-      <c r="G5" s="3">
-        <v>44198</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J5" s="4">
         <v>89</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M5" s="4">
         <v>368</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>164</v>
+      <c r="N5" s="14">
+        <v>16349967799</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="3">
+        <v>53</v>
+      </c>
+      <c r="F6" s="11">
         <v>44266</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="11">
         <v>44279</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J6" s="4">
         <v>89</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M6" s="4">
         <v>291</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>167</v>
+      <c r="N6" s="14">
+        <v>16361770999</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="3">
+        <v>46</v>
+      </c>
+      <c r="F7" s="11">
         <v>43826</v>
       </c>
-      <c r="G7" s="3">
-        <v>44138</v>
-      </c>
+      <c r="G7" s="11"/>
       <c r="H7" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J7" s="4">
         <v>43</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M7" s="4">
         <v>270</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>170</v>
+      <c r="N7" s="14">
+        <v>57661613899</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="3">
+        <v>23</v>
+      </c>
+      <c r="F8" s="11">
         <v>44166</v>
       </c>
-      <c r="G8" s="3">
-        <v>43923</v>
-      </c>
+      <c r="G8" s="11"/>
       <c r="H8" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="4">
         <v>87</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M8" s="4">
         <v>360</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>173</v>
+      <c r="N8" s="14">
+        <v>90333758299</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="3">
+        <v>68</v>
+      </c>
+      <c r="F9" s="11">
         <v>43996</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="11">
         <v>43914</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="J9" s="4">
         <v>38</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="M9" s="4">
         <v>162</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>176</v>
+      <c r="N9" s="14">
+        <v>19368898299</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="3">
+        <v>46</v>
+      </c>
+      <c r="F10" s="11">
         <v>43996</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="11">
         <v>44284</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J10" s="4">
         <v>39</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="M10" s="4">
         <v>181</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>179</v>
+      <c r="N10" s="14">
+        <v>25237612599</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="3">
+        <v>76</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="11">
         <v>43704</v>
       </c>
-      <c r="G11" s="3">
-        <v>44015</v>
-      </c>
+      <c r="G11" s="11"/>
       <c r="H11" s="1" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="J11" s="4">
         <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="M11" s="4">
         <v>200</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>182</v>
+      <c r="N11" s="14">
+        <v>53857915099</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="3">
+        <v>68</v>
+      </c>
+      <c r="F12" s="11">
         <v>43703</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="11">
         <v>44117</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="J12" s="4">
         <v>74</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M12" s="4">
         <v>339</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>185</v>
+      <c r="N12" s="14">
+        <v>53603011799</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="3">
+        <v>61</v>
+      </c>
+      <c r="F13" s="11">
         <v>43947</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="11">
         <v>43749</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J13" s="4">
         <v>30</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="M13" s="4">
         <v>301</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>189</v>
+      <c r="N13" s="14">
+        <v>25237612599</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3">
+        <v>23</v>
+      </c>
+      <c r="F14" s="11">
         <v>43753</v>
       </c>
-      <c r="G14" s="3">
-        <v>44042</v>
-      </c>
+      <c r="G14" s="11"/>
       <c r="H14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J14" s="4">
         <v>33</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M14" s="4">
         <v>295</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>192</v>
+      <c r="N14" s="14">
+        <v>61955754399</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="3">
+        <v>53</v>
+      </c>
+      <c r="F15" s="11">
         <v>44002</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="11">
         <v>43741</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" s="4">
         <v>79</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="M15" s="4">
         <v>155</v>
       </c>
-      <c r="N15" s="6" t="s">
-        <v>195</v>
+      <c r="N15" s="8">
+        <v>48376903992</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="3">
+        <v>55</v>
+      </c>
+      <c r="F16" s="11">
         <v>44266</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="11">
         <v>44065</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16" s="4">
         <v>52</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M16" s="4">
         <v>288</v>
       </c>
-      <c r="N16" s="6" t="s">
-        <v>197</v>
+      <c r="N16" s="14">
+        <v>40494998999</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="3">
+        <v>53</v>
+      </c>
+      <c r="F17" s="11">
         <v>44313</v>
       </c>
-      <c r="G17" s="3">
-        <v>44115</v>
-      </c>
+      <c r="G17" s="11"/>
       <c r="H17" s="1" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" s="4">
         <v>85</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M17" s="4">
         <v>339</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>200</v>
+      <c r="N17" s="14">
+        <v>21282854099</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="3">
+        <v>55</v>
+      </c>
+      <c r="F18" s="11">
         <v>43863</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="11">
         <v>43921</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="J18" s="4">
         <v>41</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M18" s="4">
         <v>157</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>203</v>
+      <c r="N18" s="14">
+        <v>20328101299</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="3">
+        <v>68</v>
+      </c>
+      <c r="F19" s="11">
         <v>44287</v>
       </c>
-      <c r="G19" s="3">
-        <v>44135</v>
-      </c>
+      <c r="G19" s="11"/>
       <c r="H19" s="1" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" s="4">
         <v>62</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M19" s="4">
         <v>371</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>206</v>
+      <c r="N19" s="14">
+        <v>81702877399</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="10"/>
+        <v>107</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="3">
+        <v>68</v>
+      </c>
+      <c r="F20" s="11">
         <v>43904</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="11">
         <v>44220</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J20" s="4">
         <v>70</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="M20" s="4">
         <v>177</v>
       </c>
-      <c r="N20" s="6" t="s">
-        <v>209</v>
+      <c r="N20" s="14">
+        <v>83861616199</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C20:D20"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2275,13 +2203,13 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2289,30 +2217,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2325,9 +2253,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2345,24 +2275,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="D2" s="4">
         <v>7</v>
@@ -2373,13 +2303,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -2390,13 +2320,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>282</v>
       </c>
       <c r="D4" s="4">
         <v>96</v>
@@ -2407,16 +2337,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="D5" s="4">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
         <v>7</v>
@@ -2424,50 +2354,50 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>287</v>
       </c>
       <c r="D6" s="4">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E6" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>289</v>
       </c>
       <c r="D7" s="4">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E7" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>76</v>
+      <c r="B8" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>282</v>
       </c>
       <c r="D8" s="4">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
@@ -2475,16 +2405,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>42</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>292</v>
       </c>
       <c r="D9" s="4">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -2492,190 +2422,27 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>282</v>
       </c>
       <c r="D10" s="4">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="4">
-        <v>42</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="4">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="4">
-        <v>26</v>
-      </c>
-      <c r="E13" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="4">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="4">
-        <v>42</v>
-      </c>
-      <c r="E15" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="4">
-        <v>89</v>
-      </c>
-      <c r="E16" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="4">
-        <v>96</v>
-      </c>
-      <c r="E17" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="4">
-        <v>37</v>
-      </c>
-      <c r="E18" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="4">
-        <v>31</v>
-      </c>
-      <c r="E19" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="4">
-        <v>90</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2687,21 +2454,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -2710,556 +2478,833 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>275</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>150</v>
+        <v>274</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>110</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>81702877399</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="11">
+        <v>38261</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>86394604599</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="11">
+        <v>44334</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>36483323999</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="11">
+        <v>39685</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>42852543899</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3">
-        <v>38261</v>
-      </c>
-      <c r="H2" s="11">
-        <v>43572</v>
-      </c>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="7">
-        <v>44334</v>
-      </c>
-      <c r="H3" s="11">
-        <v>39039</v>
-      </c>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="11">
+        <v>40180</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>82699511599</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="11">
+        <v>39280</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>71325056799</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="3">
-        <v>39685</v>
-      </c>
-      <c r="H4" s="11">
-        <v>39760</v>
-      </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="3">
-        <v>40180</v>
-      </c>
-      <c r="H5" s="3">
-        <v>40003</v>
-      </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="3">
-        <v>39280</v>
-      </c>
-      <c r="H6" s="11">
-        <v>36827</v>
-      </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="3">
+        <v>68</v>
+      </c>
+      <c r="F7" s="11">
         <v>41429</v>
       </c>
-      <c r="H7" s="11">
-        <v>37144</v>
-      </c>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>173</v>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>83861616199</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="3">
+        <v>33</v>
+      </c>
+      <c r="F8" s="11">
         <v>37126</v>
       </c>
-      <c r="H8" s="11">
-        <v>40588</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>176</v>
+      <c r="G8" s="11"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>82972840099</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="3">
+        <v>33</v>
+      </c>
+      <c r="F9" s="11">
         <v>42218</v>
       </c>
-      <c r="H9" s="11">
-        <v>39793</v>
-      </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>179</v>
+      <c r="G9" s="11"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>53307248299</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="11">
+        <v>40435</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>82875497299</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="3">
-        <v>40435</v>
-      </c>
-      <c r="H10" s="11">
-        <v>42487</v>
-      </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="11">
         <v>38949</v>
       </c>
-      <c r="H11" s="11">
-        <v>42612</v>
-      </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>185</v>
+      <c r="G11" s="11"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>39629219199</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="7">
+        <v>53</v>
+      </c>
+      <c r="F12" s="11">
         <v>37027</v>
       </c>
-      <c r="H12" s="11">
-        <v>40903</v>
-      </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>189</v>
+      <c r="G12" s="11"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>57661613899</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="3">
+        <v>55</v>
+      </c>
+      <c r="F13" s="11">
         <v>43762</v>
       </c>
-      <c r="H13" s="12">
-        <v>43247</v>
-      </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>192</v>
+      <c r="G13" s="11"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>20328101299</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="7">
+        <v>55</v>
+      </c>
+      <c r="F14" s="11">
         <v>38838</v>
       </c>
-      <c r="H14" s="11">
-        <v>41465</v>
-      </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>195</v>
+      <c r="G14" s="11"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>29948424099</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="11">
+        <v>37029</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>51283341999</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="11">
+        <v>38808</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>46899271499</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="11">
+        <v>38414</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>30998898799</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="11">
+        <v>38300</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>84882774399</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="11">
+        <v>42443</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>87364724599</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="7">
-        <v>37029</v>
-      </c>
-      <c r="H15" s="11">
-        <v>39318</v>
-      </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="F20" s="11">
+        <v>37420</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>89621657699</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="17">
+        <v>36912</v>
+      </c>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>13454996899</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="3">
-        <v>38808</v>
-      </c>
-      <c r="H16" s="11">
-        <v>41430</v>
-      </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="F22" s="17">
+        <v>982</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>77299698399</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="17">
+        <v>3453</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>16349967799</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="17">
+        <v>4955</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>16361770999</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="17">
+        <v>829</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>90333758299</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="17">
+        <v>889</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>19368898299</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="17">
+        <v>2673</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>25237612599</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="17">
+        <v>36470</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>53857915099</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="17">
+        <v>6236</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>53603011799</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="17">
         <v>202</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="3">
-        <v>38414</v>
-      </c>
-      <c r="H17" s="11">
-        <v>42968</v>
-      </c>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="3">
-        <v>38300</v>
-      </c>
-      <c r="H18" s="11">
-        <v>44257</v>
-      </c>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="G30" s="11"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>61955754399</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="17">
+        <v>6572</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>48376903992</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="17">
+        <v>4377</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>40494998999</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="17">
+        <v>6938</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>21282854099</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="3">
-        <v>42443</v>
-      </c>
-      <c r="H19" s="11">
-        <v>39497</v>
-      </c>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="3">
-        <v>37420</v>
-      </c>
-      <c r="H20" s="11">
-        <v>36838</v>
-      </c>
-      <c r="I20" s="10"/>
+      <c r="E34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="17">
+        <v>2300</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3271,21 +3316,24 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="8" max="9" width="14.5" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3294,554 +3342,474 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G2" s="3">
         <v>43626</v>
       </c>
-      <c r="H2" s="11">
-        <v>42962</v>
-      </c>
-      <c r="I2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="3">
         <v>40725</v>
       </c>
-      <c r="H3" s="11">
-        <v>40348</v>
-      </c>
-      <c r="I3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3">
         <v>43585</v>
       </c>
-      <c r="H4" s="11">
-        <v>42014</v>
-      </c>
-      <c r="I4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3">
         <v>38775</v>
       </c>
-      <c r="H5" s="11">
-        <v>44130</v>
-      </c>
-      <c r="I5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G6" s="3">
         <v>37410</v>
       </c>
-      <c r="H6" s="11">
-        <v>40076</v>
-      </c>
-      <c r="I6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>313</v>
+        <v>232</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G7" s="3">
         <v>36705</v>
       </c>
-      <c r="H7" s="11">
-        <v>38784</v>
-      </c>
-      <c r="I7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>315</v>
+        <v>234</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>317</v>
+        <v>236</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3">
         <v>37775</v>
       </c>
-      <c r="H8" s="11">
-        <v>40568</v>
-      </c>
-      <c r="I8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>318</v>
+        <v>237</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>319</v>
+        <v>238</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>320</v>
+        <v>239</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G9" s="7">
         <v>44338</v>
       </c>
-      <c r="H9" s="11">
-        <v>38142</v>
-      </c>
-      <c r="I9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G10" s="3">
         <v>43638</v>
       </c>
-      <c r="H10" s="11">
-        <v>43530</v>
-      </c>
-      <c r="I10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>324</v>
+        <v>243</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>325</v>
+        <v>244</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G11" s="3">
         <v>41435</v>
       </c>
-      <c r="H11" s="11">
-        <v>37572</v>
-      </c>
-      <c r="I11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>327</v>
+        <v>246</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>328</v>
+        <v>247</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G12" s="3">
         <v>41092</v>
       </c>
-      <c r="H12" s="11">
-        <v>37353</v>
-      </c>
-      <c r="I12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>329</v>
+        <v>248</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7">
         <v>42858</v>
       </c>
-      <c r="H13" s="11">
-        <v>43120</v>
-      </c>
-      <c r="I13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>333</v>
+        <v>252</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>334</v>
+        <v>253</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G14" s="3">
         <v>40493</v>
       </c>
-      <c r="H14" s="11">
-        <v>38804</v>
-      </c>
-      <c r="I14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>335</v>
+        <v>254</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>336</v>
+        <v>255</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>337</v>
+        <v>256</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G15" s="3">
         <v>43007</v>
       </c>
-      <c r="H15" s="11">
-        <v>42464</v>
-      </c>
-      <c r="I15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>338</v>
+        <v>257</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>339</v>
+        <v>258</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G16" s="3">
         <v>38021</v>
       </c>
-      <c r="H16" s="11">
-        <v>41112</v>
-      </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>341</v>
+        <v>260</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>342</v>
+        <v>261</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>343</v>
+        <v>262</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="3">
         <v>40427</v>
       </c>
-      <c r="H17" s="11">
-        <v>43949</v>
-      </c>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>344</v>
+        <v>263</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>345</v>
+        <v>264</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>346</v>
+        <v>265</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G18" s="3">
         <v>41944</v>
       </c>
-      <c r="H18" s="11">
-        <v>41818</v>
-      </c>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>347</v>
+        <v>266</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>348</v>
+        <v>267</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>349</v>
+        <v>268</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G19" s="3">
         <v>41935</v>
       </c>
-      <c r="H19" s="11">
-        <v>38409</v>
-      </c>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>350</v>
+        <v>269</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>351</v>
+        <v>270</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>352</v>
+        <v>271</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="3">
         <v>43298</v>
       </c>
-      <c r="H20" s="11">
-        <v>39466</v>
-      </c>
-      <c r="I20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3851,354 +3819,432 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="9"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>41552922899</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>62843154399</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>50255209299</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>95504511399</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>45226978199</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>95458702299</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>73578876299</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>40414938799</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>95298995799</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>8892643899</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>87321918699</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>16620864899</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>62704545299</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>57237620999</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>61756394699</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>98671339599</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="D17" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>21813277399</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>10597915899</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>2533603199</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="D20" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="F20" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Sample Data for Hospital Database.xlsx
+++ b/Documentation/Sample Data for Hospital Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Spencer/Documents/CMSC508/Project/vcu-cs-cmsc508-teamproject-summer2020-team-10/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saumyatrivedi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAFFC1A-2B80-4C49-B6D5-29DBE09DE6BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B46A103-9D60-6844-B03E-80E9DA0320F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2320" yWindow="1760" windowWidth="28800" windowHeight="16500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="285">
   <si>
     <t>Emergency</t>
   </si>
@@ -880,13 +880,25 @@
   <si>
     <t>Relation</t>
   </si>
+  <si>
+    <t>1901 Tate Springs Rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lynchburg</t>
+  </si>
+  <si>
+    <t>Fredericksburg</t>
+  </si>
+  <si>
+    <t>1001 Sam Perry Blvd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="mm\-dd\-yy"/>
+    <numFmt numFmtId="164" formatCode="mm\-dd\-yy"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -967,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -978,13 +990,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -994,7 +1006,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2143,7 +2156,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2182,6 +2195,16 @@
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2201,8 +2224,8 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2213,7 +2236,7 @@
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>267</v>
       </c>
@@ -2230,7 +2253,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2247,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2264,7 +2287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2281,7 +2304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -2298,7 +2321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2315,7 +2338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -2332,7 +2355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -2349,7 +2372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -2366,7 +2389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -2383,12 +2406,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="3">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" s="3">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="18"/>
@@ -2424,7 +2474,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2456,7 +2506,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>81702877399</v>
       </c>
@@ -2478,7 +2528,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>86394604599</v>
       </c>
@@ -2500,7 +2550,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>36483323999</v>
       </c>
@@ -2522,7 +2572,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>42852543899</v>
       </c>
@@ -2544,7 +2594,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>82699511599</v>
       </c>
@@ -2566,7 +2616,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>71325056799</v>
       </c>
@@ -2588,7 +2638,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>83861616199</v>
       </c>
@@ -2610,7 +2660,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>82972840099</v>
       </c>
@@ -2632,7 +2682,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>53307248299</v>
       </c>
@@ -2654,7 +2704,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>82875497299</v>
       </c>
@@ -2676,7 +2726,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>39629219199</v>
       </c>
@@ -2698,7 +2748,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>57661613899</v>
       </c>
@@ -2720,7 +2770,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>20328101299</v>
       </c>
@@ -2742,7 +2792,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>29948424099</v>
       </c>
@@ -2764,7 +2814,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>51283341999</v>
       </c>
@@ -2786,7 +2836,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>46899271499</v>
       </c>
@@ -2830,7 +2880,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>84882774399</v>
       </c>
@@ -2852,7 +2902,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>87364724599</v>
       </c>
@@ -3766,7 +3816,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -3776,7 +3826,7 @@
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>212</v>
       </c>
@@ -3796,7 +3846,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>41552922899</v>
       </c>
@@ -3816,7 +3866,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>62843154399</v>
       </c>
@@ -3836,7 +3886,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>50255209299</v>
       </c>
@@ -3856,7 +3906,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>95504511399</v>
       </c>
@@ -3876,7 +3926,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>45226978199</v>
       </c>
@@ -3896,7 +3946,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>95458702299</v>
       </c>
@@ -3916,7 +3966,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>73578876299</v>
       </c>
@@ -3936,7 +3986,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>40414938799</v>
       </c>
@@ -3956,7 +4006,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>95298995799</v>
       </c>
@@ -3976,7 +4026,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>8892643899</v>
       </c>
@@ -3996,7 +4046,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>87321918699</v>
       </c>
@@ -4016,7 +4066,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>16620864899</v>
       </c>
@@ -4036,7 +4086,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>62704545299</v>
       </c>
@@ -4056,7 +4106,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>57237620999</v>
       </c>
@@ -4076,7 +4126,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>61756394699</v>
       </c>
@@ -4096,7 +4146,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>98671339599</v>
       </c>
@@ -4116,7 +4166,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>21813277399</v>
       </c>
@@ -4136,7 +4186,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>10597915899</v>
       </c>
@@ -4156,7 +4206,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>2533603199</v>
       </c>

--- a/Documentation/Sample Data for Hospital Database.xlsx
+++ b/Documentation/Sample Data for Hospital Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Spencer/Documents/CMSC508/Project/vcu-cs-cmsc508-teamproject-summer2020-team-10/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D96F24B-8E96-D343-B38C-3BD810770005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB8C9FD-0040-6B48-806E-5E418A49D14A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="291">
   <si>
     <t>Emergency</t>
   </si>
@@ -906,7 +906,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm\-dd\-yy"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -918,16 +918,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1003,9 +1006,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
@@ -1228,7 +1231,7 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -1241,7 +1244,7 @@
     <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>242</v>
       </c>
@@ -2213,8 +2216,8 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2261,9 +2264,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="15" t="s">
@@ -2282,7 +2283,7 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2822,7 +2823,7 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -3685,7 +3686,7 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
